--- a/pn-testing-framework/input-data/Test_MicrowaveComparison.xlsx
+++ b/pn-testing-framework/input-data/Test_MicrowaveComparison.xlsx
@@ -1,33 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="test_ComparingProductsContains_" sheetId="1" r:id="rId1"/>
+    <sheet name="test_ProductsComparison" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>Микроволновки</t>
   </si>
   <si>
-    <t>secondProductNumber</t>
+    <t>category</t>
   </si>
   <si>
-    <t>firstProductNumber</t>
-  </si>
-  <si>
-    <t>category</t>
+    <t>product</t>
   </si>
 </sst>
 </file>
@@ -82,7 +79,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -90,14 +87,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -135,9 +135,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -172,7 +172,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -207,7 +207,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -396,13 +396,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -418,7 +418,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/pn-testing-framework/input-data/Test_MicrowaveComparison.xlsx
+++ b/pn-testing-framework/input-data/Test_MicrowaveComparison.xlsx
@@ -18,13 +18,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
-    <t>Микроволновки</t>
-  </si>
-  <si>
     <t>category</t>
   </si>
   <si>
     <t>product</t>
+  </si>
+  <si>
+    <t>Микроволновки</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,24 +396,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
